--- a/Data/EC/NIT-9016379132.xlsx
+++ b/Data/EC/NIT-9016379132.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52CAFCB0-2B83-4D7E-907D-F6926E4865BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{900C3372-BB87-403B-AF1B-83170BC7B2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93444D63-D9D6-4522-B982-59C19D6C5318}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F1F9022-5D8F-4F0C-B731-713783AABAA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,84 @@
     <t>CC</t>
   </si>
   <si>
+    <t>28215702</t>
+  </si>
+  <si>
+    <t>NANCY SANDOVAL SALINAS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1104872748</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS PADILLA ARRIETA</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1100394158</t>
+  </si>
+  <si>
+    <t>IVAN JAVIER DOMINGUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1100400317</t>
+  </si>
+  <si>
+    <t>EDUAR ANTONIO CORREA CASTRO</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>1100548932</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO VANEGAS LUNA</t>
+  </si>
+  <si>
+    <t>1100398349</t>
+  </si>
+  <si>
+    <t>EMBER GUSTAVO DE LA OSSA ATENCIA</t>
+  </si>
+  <si>
+    <t>1100396230</t>
+  </si>
+  <si>
+    <t>JESUS ALFONSO PINEDA AVILA</t>
+  </si>
+  <si>
+    <t>73242423</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS MENDEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>1052954826</t>
+  </si>
+  <si>
+    <t>ALEXANDRA ISABEL VALLE BARRAGAN</t>
+  </si>
+  <si>
+    <t>1100550563</t>
+  </si>
+  <si>
+    <t>WINDER JOSE SOLORZANO RICARDO</t>
+  </si>
+  <si>
+    <t>9143691</t>
+  </si>
+  <si>
+    <t>EDUARDO ALVARADO QUESADA</t>
+  </si>
+  <si>
     <t>72333328</t>
   </si>
   <si>
@@ -74,91 +152,22 @@
     <t>2302</t>
   </si>
   <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1100550563</t>
-  </si>
-  <si>
-    <t>WINDER JOSE SOLORZANO RICARDO</t>
-  </si>
-  <si>
-    <t>1100394158</t>
-  </si>
-  <si>
-    <t>IVAN JAVIER DOMINGUEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1104872748</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS PADILLA ARRIETA</t>
-  </si>
-  <si>
     <t>1005418669</t>
   </si>
   <si>
     <t>EDGAR DANILO PALENCIA ATENCIA</t>
   </si>
   <si>
-    <t>1052954826</t>
-  </si>
-  <si>
-    <t>ALEXANDRA ISABEL VALLE BARRAGAN</t>
-  </si>
-  <si>
-    <t>1100548932</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO VANEGAS LUNA</t>
-  </si>
-  <si>
-    <t>9143691</t>
-  </si>
-  <si>
-    <t>EDUARDO ALVARADO QUESADA</t>
-  </si>
-  <si>
-    <t>73242423</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS MENDEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>1100396230</t>
-  </si>
-  <si>
-    <t>JESUS ALFONSO PINEDA AVILA</t>
-  </si>
-  <si>
-    <t>1100398349</t>
-  </si>
-  <si>
-    <t>EMBER GUSTAVO DE LA OSSA ATENCIA</t>
-  </si>
-  <si>
-    <t>1100400317</t>
-  </si>
-  <si>
-    <t>EDUAR ANTONIO CORREA CASTRO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
     <t>23221622</t>
   </si>
   <si>
     <t>ODALIS DEL CARMEN SOLIS HUERTAS</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -572,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222BBBAE-4E7C-AFA4-96C0-10BD9A904E77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E005049C-9B1C-29E3-0834-1B4FD7C23496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C38AD66-16C6-4267-BD4F-574927B063EE}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3688EA-EFE5-4B86-8452-00B4E2E640B7}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -948,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1025,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>705044</v>
+        <v>767782</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1041,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1078,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1101,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>2899</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>2173914</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1124,10 +1133,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>2899</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>2173914</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,13 +1153,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>1547</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1400000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1161,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F19" s="18">
         <v>56000</v>
@@ -1184,16 +1193,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G20" s="18">
         <v>1400000</v>
@@ -1207,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1230,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" s="18">
-        <v>26000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1253,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18">
-        <v>56000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1276,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>1547</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1299,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
-        <v>1547</v>
+        <v>26000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1322,16 +1331,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>1547</v>
       </c>
       <c r="G26" s="18">
         <v>1160000</v>
@@ -1345,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1368,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F28" s="18">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="18">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1391,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F29" s="18">
-        <v>28470</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1414,75 +1423,144 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="24">
+      <c r="D31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="18">
         <v>56940</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="18">
         <v>1423500</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="24">
+        <v>28470</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016379132.xlsx
+++ b/Data/EC/NIT-9016379132.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{900C3372-BB87-403B-AF1B-83170BC7B2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEC1AAB-6B74-4A20-A207-80BD2FBBD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F1F9022-5D8F-4F0C-B731-713783AABAA0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E34B215F-30D1-4581-96B0-23A1ACA691E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,109 +65,103 @@
     <t>CC</t>
   </si>
   <si>
-    <t>28215702</t>
-  </si>
-  <si>
-    <t>NANCY SANDOVAL SALINAS</t>
+    <t>72333328</t>
+  </si>
+  <si>
+    <t>GEIGER ENRRIQUE HERRERA CASTRO</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1104872748</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS PADILLA ARRIETA</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1100394158</t>
+  </si>
+  <si>
+    <t>IVAN JAVIER DOMINGUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1100548932</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO VANEGAS LUNA</t>
+  </si>
+  <si>
+    <t>1100398349</t>
+  </si>
+  <si>
+    <t>EMBER GUSTAVO DE LA OSSA ATENCIA</t>
+  </si>
+  <si>
+    <t>1100396230</t>
+  </si>
+  <si>
+    <t>JESUS ALFONSO PINEDA AVILA</t>
+  </si>
+  <si>
+    <t>73242423</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS MENDEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>1052954826</t>
+  </si>
+  <si>
+    <t>ALEXANDRA ISABEL VALLE BARRAGAN</t>
+  </si>
+  <si>
+    <t>1100550563</t>
+  </si>
+  <si>
+    <t>WINDER JOSE SOLORZANO RICARDO</t>
+  </si>
+  <si>
+    <t>9143691</t>
+  </si>
+  <si>
+    <t>EDUARDO ALVARADO QUESADA</t>
+  </si>
+  <si>
+    <t>1005418669</t>
+  </si>
+  <si>
+    <t>EDGAR DANILO PALENCIA ATENCIA</t>
+  </si>
+  <si>
+    <t>1100400317</t>
+  </si>
+  <si>
+    <t>EDUAR ANTONIO CORREA CASTRO</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>23221622</t>
+  </si>
+  <si>
+    <t>ODALIS DEL CARMEN SOLIS HUERTAS</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1104872748</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS PADILLA ARRIETA</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1100394158</t>
-  </si>
-  <si>
-    <t>IVAN JAVIER DOMINGUEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1100400317</t>
-  </si>
-  <si>
-    <t>EDUAR ANTONIO CORREA CASTRO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1100548932</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO VANEGAS LUNA</t>
-  </si>
-  <si>
-    <t>1100398349</t>
-  </si>
-  <si>
-    <t>EMBER GUSTAVO DE LA OSSA ATENCIA</t>
-  </si>
-  <si>
-    <t>1100396230</t>
-  </si>
-  <si>
-    <t>JESUS ALFONSO PINEDA AVILA</t>
-  </si>
-  <si>
-    <t>73242423</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS MENDEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>1052954826</t>
-  </si>
-  <si>
-    <t>ALEXANDRA ISABEL VALLE BARRAGAN</t>
-  </si>
-  <si>
-    <t>1100550563</t>
-  </si>
-  <si>
-    <t>WINDER JOSE SOLORZANO RICARDO</t>
-  </si>
-  <si>
-    <t>9143691</t>
-  </si>
-  <si>
-    <t>EDUARDO ALVARADO QUESADA</t>
-  </si>
-  <si>
-    <t>72333328</t>
-  </si>
-  <si>
-    <t>GEIGER ENRRIQUE HERRERA CASTRO</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1005418669</t>
-  </si>
-  <si>
-    <t>EDGAR DANILO PALENCIA ATENCIA</t>
-  </si>
-  <si>
-    <t>23221622</t>
-  </si>
-  <si>
-    <t>ODALIS DEL CARMEN SOLIS HUERTAS</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2504</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E005049C-9B1C-29E3-0834-1B4FD7C23496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FAA5D4-4F8B-3BEE-1A77-60C87AA13550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3688EA-EFE5-4B86-8452-00B4E2E640B7}">
-  <dimension ref="B2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6952D228-73FE-4B23-9A45-9D9CD7C3DF10}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -957,7 +951,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +996,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>767782</v>
+        <v>761984</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,14 +1044,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1087,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>2899</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>2173914</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1124,19 +1118,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>2899</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>2173914</v>
+        <v>1400000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,19 +1141,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G18" s="18">
-        <v>1400000</v>
+        <v>1700000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,19 +1164,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>56000</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>1550000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1193,19 +1187,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>56000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1400000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1222,13 +1216,13 @@
         <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>56000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1245,13 +1239,13 @@
         <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>1547</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1268,13 +1262,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>26000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1630435</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1291,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>1547</v>
@@ -1314,13 +1308,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>1547</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1354,19 +1348,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1377,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1400,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>28470</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1423,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1446,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>56940</v>
@@ -1465,102 +1459,56 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="F32" s="24">
         <v>56940</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="24">
         <v>1423500</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="24">
-        <v>28470</v>
-      </c>
-      <c r="G34" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016379132.xlsx
+++ b/Data/EC/NIT-9016379132.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEC1AAB-6B74-4A20-A207-80BD2FBBD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A105D46-ED7E-4A58-86C2-6D3DD8F5DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E34B215F-30D1-4581-96B0-23A1ACA691E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18570A2C-CE94-4016-BA6E-81183582C698}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -275,7 +273,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,29 +469,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,19 +510,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FAA5D4-4F8B-3BEE-1A77-60C87AA13550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB0227C-7E4F-5D6C-6429-8DD81C6C2809}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6952D228-73FE-4B23-9A45-9D9CD7C3DF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4280F0BC-5CE2-4BA5-B23D-766FF55D0FB6}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -949,49 +955,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -999,7 +1005,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9016379132</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>761984</v>
       </c>
@@ -1100,18 +1106,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>60000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1500000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1123,18 +1129,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>46400</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1400000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1146,18 +1152,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>56000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1700000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1169,18 +1175,18 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>56000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1550000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1192,18 +1198,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>46400</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1215,18 +1221,18 @@
       <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>46400</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1160000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1238,18 +1244,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>1547</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1160000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1261,18 +1267,18 @@
       <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>26000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1630435</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1284,18 +1290,18 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>1547</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1160000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1307,18 +1313,18 @@
       <c r="D25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>60000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1500000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1330,18 +1336,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>60000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1500000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1353,18 +1359,18 @@
       <c r="D27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>46400</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1300000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1376,18 +1382,18 @@
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>56000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1400000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1399,18 +1405,18 @@
       <c r="D29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>28470</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1423500</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1422,18 +1428,18 @@
       <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>56940</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1423500</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1445,47 +1451,47 @@
       <c r="D31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>56940</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1423500</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="26">
         <v>56940</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="26">
         <v>1423500</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>51</v>
       </c>
@@ -1493,10 +1499,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="34"/>
       <c r="H38" s="1" t="s">
         <v>52</v>
       </c>
